--- a/test.xlsx
+++ b/test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623ADBA-569B-49E8-BC1D-A88D1A071B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -25,32 +24,65 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Place</t>
-  </si>
-  <si>
     <t>Satvik</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Sargam</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Ishaan</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Aamir Khan</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Vinukonda</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,14 +119,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,24 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,16 +406,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,40 +428,115 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="B6">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -477,24 +545,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAD481-9903-4EEB-81FD-C98635A97503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -76,13 +77,16 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,136 +454,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -545,24 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAD481-9903-4EEB-81FD-C98635A97503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24BAB2-2684-4CEF-89F1-9217D5F8C0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="840" windowWidth="13065" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
